--- a/Excel-XLSX/UN-MAD.xlsx
+++ b/Excel-XLSX/UN-MAD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,199 @@
     <t>1</t>
   </si>
   <si>
-    <t>SoWg3o</t>
+    <t>hILc5T</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>MDG</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>COB</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Dem. Rep. of the Congo</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>COI</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>COS</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
   <si>
     <t>1994</t>
@@ -102,28 +294,280 @@
     <t>ETH</t>
   </si>
   <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>MAD</t>
-  </si>
-  <si>
-    <t>MDG</t>
-  </si>
-  <si>
     <t>65</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Palestinian</t>
+  </si>
+  <si>
+    <t>GAZ</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SUD</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
   </si>
   <si>
     <t>262</t>
@@ -135,430 +579,13 @@
     <t>UKN</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>82</t>
   </si>
   <si>
     <t>1999</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>BDI</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Dem. Rep. of the Congo</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>RWA</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>SUD</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>COB</t>
-  </si>
-  <si>
-    <t>COG</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>LBR</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>Palestinian</t>
-  </si>
-  <si>
-    <t>GAZ</t>
-  </si>
-  <si>
-    <t>PSE</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>AFG</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>SOM</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>YEM</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>Türkiye</t>
-  </si>
-  <si>
-    <t>TUR</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>COS</t>
-  </si>
-  <si>
-    <t>CRI</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>GUI</t>
-  </si>
-  <si>
-    <t>GIN</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>COI</t>
-  </si>
-  <si>
-    <t>COM</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>78</t>
   </si>
 </sst>
 </file>
@@ -943,7 +970,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1066,25 +1093,25 @@
         <v>33</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>33</v>
+      <c r="V2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -1098,22 +1125,22 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -1128,31 +1155,31 @@
         <v>31</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>33</v>
+      <c r="V3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -1166,22 +1193,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -1196,31 +1223,31 @@
         <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>33</v>
+      <c r="V4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -1234,22 +1261,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -1264,31 +1291,31 @@
         <v>31</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>33</v>
+      <c r="V5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1302,22 +1329,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1332,31 +1359,31 @@
         <v>31</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>33</v>
+      <c r="V6" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1370,7 +1397,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>44</v>
@@ -1400,31 +1427,31 @@
         <v>31</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>33</v>
+      <c r="V7" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1438,22 +1465,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1468,31 +1495,31 @@
         <v>31</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1506,22 +1533,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1536,31 +1563,31 @@
         <v>31</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1574,22 +1601,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1607,28 +1634,28 @@
         <v>54</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>33</v>
+      <c r="V10" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1642,22 +1669,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1672,31 +1699,31 @@
         <v>31</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>33</v>
+      <c r="V11" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -1710,22 +1737,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
@@ -1740,31 +1767,31 @@
         <v>31</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>33</v>
+      <c r="V12" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -1778,22 +1805,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -1808,31 +1835,31 @@
         <v>31</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>33</v>
+      <c r="V13" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -1846,22 +1873,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -1876,31 +1903,31 @@
         <v>31</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>33</v>
+      <c r="V14" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -1914,22 +1941,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -1944,31 +1971,31 @@
         <v>31</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>33</v>
+      <c r="V15" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -1982,22 +2009,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -2012,31 +2039,31 @@
         <v>31</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V16" s="2" t="s">
-        <v>33</v>
+      <c r="V16" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2050,22 +2077,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -2080,31 +2107,31 @@
         <v>31</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V17" s="2" t="s">
-        <v>33</v>
+      <c r="V17" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -2118,22 +2145,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -2148,31 +2175,31 @@
         <v>31</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>33</v>
+      <c r="V18" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -2186,22 +2213,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -2216,31 +2243,31 @@
         <v>31</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>33</v>
+      <c r="V19" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -2254,22 +2281,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2284,31 +2311,31 @@
         <v>31</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>33</v>
+      <c r="V20" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -2322,22 +2349,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2352,31 +2379,31 @@
         <v>31</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V21" s="2" t="s">
-        <v>33</v>
+      <c r="V21" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -2390,22 +2417,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2420,31 +2447,31 @@
         <v>31</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V22" s="2" t="s">
-        <v>33</v>
+      <c r="V22" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -2458,22 +2485,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2488,31 +2515,31 @@
         <v>31</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="2" t="s">
-        <v>33</v>
+      <c r="V23" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -2526,22 +2553,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>28</v>
@@ -2556,31 +2583,31 @@
         <v>31</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V24" s="2" t="s">
-        <v>33</v>
+      <c r="V24" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -2594,22 +2621,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2624,31 +2651,31 @@
         <v>31</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="2" t="s">
-        <v>33</v>
+      <c r="V25" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -2662,22 +2689,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>28</v>
@@ -2695,28 +2722,28 @@
         <v>33</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -2730,22 +2757,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
@@ -2760,31 +2787,31 @@
         <v>31</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V27" s="2" t="s">
-        <v>33</v>
+      <c r="V27" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -2798,22 +2825,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -2828,31 +2855,31 @@
         <v>31</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V28" s="2" t="s">
-        <v>33</v>
+      <c r="V28" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -2866,22 +2893,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -2896,31 +2923,31 @@
         <v>31</v>
       </c>
       <c r="N29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O29" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="P29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V29" s="2" t="s">
-        <v>33</v>
+      <c r="V29" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -2934,22 +2961,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -2964,31 +2991,31 @@
         <v>31</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V30" s="2" t="s">
-        <v>33</v>
+      <c r="V30" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -3002,22 +3029,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -3032,31 +3059,31 @@
         <v>31</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V31" s="2" t="s">
-        <v>33</v>
+      <c r="V31" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -3070,22 +3097,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>28</v>
@@ -3103,28 +3130,28 @@
         <v>33</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V32" s="2" t="s">
-        <v>33</v>
+      <c r="V32" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33">
@@ -3138,22 +3165,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3168,31 +3195,31 @@
         <v>31</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V33" s="2" t="s">
-        <v>33</v>
+      <c r="V33" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -3206,22 +3233,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3239,28 +3266,28 @@
         <v>33</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V34" s="2" t="s">
-        <v>33</v>
+      <c r="V34" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -3274,22 +3301,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3307,28 +3334,28 @@
         <v>33</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V35" s="2" t="s">
-        <v>33</v>
+      <c r="V35" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3369,10 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>107</v>
@@ -3357,7 +3384,7 @@
         <v>109</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3372,31 +3399,31 @@
         <v>31</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V36" s="2" t="s">
-        <v>33</v>
+      <c r="V36" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -3410,22 +3437,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3440,31 +3467,31 @@
         <v>31</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V37" s="2" t="s">
-        <v>33</v>
+      <c r="V37" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -3478,22 +3505,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3508,31 +3535,31 @@
         <v>31</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>33</v>
+      <c r="V38" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39">
@@ -3546,22 +3573,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3576,31 +3603,31 @@
         <v>31</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V39" s="2" t="s">
-        <v>33</v>
+      <c r="V39" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -3614,22 +3641,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -3644,31 +3671,31 @@
         <v>31</v>
       </c>
       <c r="N40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O40" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="P40" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V40" s="2" t="s">
-        <v>33</v>
+      <c r="V40" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="41">
@@ -3682,22 +3709,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="I41" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -3712,31 +3739,31 @@
         <v>31</v>
       </c>
       <c r="N41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O41" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="P41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V41" s="2" t="s">
-        <v>33</v>
+      <c r="V41" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="42">
@@ -3750,22 +3777,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -3780,31 +3807,31 @@
         <v>31</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V42" s="2" t="s">
-        <v>33</v>
+      <c r="V42" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="43">
@@ -3818,22 +3845,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -3848,31 +3875,31 @@
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -3886,22 +3913,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>28</v>
@@ -3916,31 +3943,31 @@
         <v>31</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -3954,22 +3981,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -3984,31 +4011,31 @@
         <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
@@ -4022,22 +4049,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="I46" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -4055,28 +4082,28 @@
         <v>33</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V46" s="2" t="s">
-        <v>33</v>
+      <c r="V46" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="47">
@@ -4090,22 +4117,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="I47" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>28</v>
@@ -4120,31 +4147,31 @@
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V47" s="2" t="s">
-        <v>33</v>
+      <c r="V47" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="48">
@@ -4158,22 +4185,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="I48" s="1" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4188,31 +4215,31 @@
         <v>31</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V48" s="2" t="s">
-        <v>33</v>
+      <c r="V48" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="49">
@@ -4226,22 +4253,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="I49" s="1" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>28</v>
@@ -4256,31 +4283,31 @@
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V49" s="2" t="s">
-        <v>33</v>
+      <c r="V49" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="50">
@@ -4294,22 +4321,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="I50" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>28</v>
@@ -4324,31 +4351,31 @@
         <v>31</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V50" s="2" t="s">
-        <v>33</v>
+      <c r="V50" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="51">
@@ -4362,22 +4389,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="I51" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4392,31 +4419,31 @@
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V51" s="2" t="s">
-        <v>33</v>
+      <c r="V51" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="52">
@@ -4430,22 +4457,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -4460,31 +4487,31 @@
         <v>31</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V52" s="2" t="s">
-        <v>33</v>
+      <c r="V52" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="53">
@@ -4498,22 +4525,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -4528,31 +4555,31 @@
         <v>31</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V53" s="2" t="s">
-        <v>33</v>
+      <c r="V53" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="54">
@@ -4566,22 +4593,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>28</v>
@@ -4596,31 +4623,31 @@
         <v>31</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V54" s="2" t="s">
-        <v>33</v>
+      <c r="V54" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="55">
@@ -4634,22 +4661,22 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>28</v>
@@ -4664,31 +4691,31 @@
         <v>31</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V55" s="2" t="s">
-        <v>33</v>
+      <c r="V55" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="56">
@@ -4702,22 +4729,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="H56" s="1" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>28</v>
@@ -4732,31 +4759,31 @@
         <v>31</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -4770,22 +4797,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>28</v>
@@ -4800,31 +4827,31 @@
         <v>31</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U57" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -4838,22 +4865,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>28</v>
@@ -4868,31 +4895,31 @@
         <v>31</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V58" s="2" t="s">
-        <v>33</v>
+      <c r="V58" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="59">
@@ -4906,22 +4933,22 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>28</v>
@@ -4936,31 +4963,31 @@
         <v>31</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V59" s="2" t="s">
-        <v>33</v>
+      <c r="V59" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="60">
@@ -4974,22 +5001,22 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>28</v>
@@ -5004,31 +5031,31 @@
         <v>31</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V60" s="2" t="s">
-        <v>33</v>
+      <c r="V60" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="61">
@@ -5042,22 +5069,22 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>28</v>
@@ -5072,31 +5099,31 @@
         <v>31</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U61" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V61" s="2" t="s">
-        <v>33</v>
+      <c r="V61" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="62">
@@ -5110,22 +5137,22 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>28</v>
@@ -5140,31 +5167,31 @@
         <v>31</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V62" s="2" t="s">
-        <v>33</v>
+      <c r="V62" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="63">
@@ -5178,22 +5205,22 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>28</v>
@@ -5208,31 +5235,31 @@
         <v>31</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U63" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V63" s="2" t="s">
-        <v>33</v>
+      <c r="V63" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="64">
@@ -5246,22 +5273,22 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>28</v>
@@ -5279,28 +5306,28 @@
         <v>33</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V64" s="2" t="s">
-        <v>33</v>
+      <c r="V64" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="65">
@@ -5314,22 +5341,22 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="G65" s="1" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>28</v>
@@ -5344,31 +5371,31 @@
         <v>31</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V65" s="2" t="s">
-        <v>33</v>
+      <c r="V65" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="66">
@@ -5382,22 +5409,22 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="G66" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>28</v>
@@ -5412,31 +5439,31 @@
         <v>31</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V66" s="2" t="s">
-        <v>33</v>
+      <c r="V66" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="67">
@@ -5450,22 +5477,22 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="G67" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>28</v>
@@ -5480,31 +5507,31 @@
         <v>31</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U67" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V67" s="2" t="s">
-        <v>33</v>
+      <c r="V67" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="68">
@@ -5518,22 +5545,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E68" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G68" s="1" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>28</v>
@@ -5551,28 +5578,28 @@
         <v>33</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="U68" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V68" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69">
@@ -5586,22 +5613,22 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="G69" s="1" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>28</v>
@@ -5616,31 +5643,31 @@
         <v>31</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U69" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V69" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
@@ -5654,22 +5681,22 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>28</v>
@@ -5684,31 +5711,31 @@
         <v>31</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U70" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V70" s="2" t="s">
-        <v>33</v>
+      <c r="V70" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="71">
@@ -5722,22 +5749,22 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="I71" s="1" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>28</v>
@@ -5752,31 +5779,31 @@
         <v>31</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V71" s="2" t="s">
-        <v>33</v>
+      <c r="V71" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="72">
@@ -5790,22 +5817,22 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>28</v>
@@ -5820,31 +5847,31 @@
         <v>31</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R72" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V72" s="2" t="s">
-        <v>33</v>
+      <c r="V72" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="73">
@@ -5861,19 +5888,19 @@
         <v>172</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>28</v>
@@ -5888,31 +5915,31 @@
         <v>31</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U73" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V73" s="2" t="s">
-        <v>33</v>
+      <c r="V73" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="74">
@@ -5929,19 +5956,19 @@
         <v>173</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>28</v>
@@ -5956,31 +5983,31 @@
         <v>31</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U74" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V74" s="2" t="s">
-        <v>33</v>
+      <c r="V74" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="75">
@@ -5994,22 +6021,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="G75" s="1" t="s">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>28</v>
@@ -6024,31 +6051,31 @@
         <v>31</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V75" s="2" t="s">
-        <v>33</v>
+      <c r="V75" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="76">
@@ -6062,22 +6089,22 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="H76" s="1" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>28</v>
@@ -6092,31 +6119,31 @@
         <v>31</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R76" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V76" s="2" t="s">
-        <v>33</v>
+      <c r="V76" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="77">
@@ -6130,22 +6157,22 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I77" s="1" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>28</v>
@@ -6160,31 +6187,31 @@
         <v>31</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="U77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V77" s="2" t="s">
-        <v>33</v>
+      <c r="V77" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="78">
@@ -6198,22 +6225,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>28</v>
@@ -6228,31 +6255,31 @@
         <v>31</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U78" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V78" s="2" t="s">
-        <v>33</v>
+      <c r="V78" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="79">
@@ -6266,22 +6293,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>28</v>
@@ -6296,31 +6323,31 @@
         <v>31</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V79" s="2" t="s">
-        <v>33</v>
+      <c r="V79" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="80">
@@ -6334,22 +6361,22 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>28</v>
@@ -6364,31 +6391,235 @@
         <v>31</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U80" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V80" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V81" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R83" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S83" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V83" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-MAD.xlsx
+++ b/Excel-XLSX/UN-MAD.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>hILc5T</t>
+    <t>GY8daB</t>
   </si>
   <si>
     <t>2016</t>
@@ -447,7 +447,7 @@
     <t>56</t>
   </si>
   <si>
-    <t>346</t>
+    <t>925</t>
   </si>
   <si>
     <t>57</t>
@@ -1110,8 +1110,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -1178,8 +1178,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1246,8 +1246,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1314,8 +1314,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>34</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1382,8 +1382,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>34</v>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1450,8 +1450,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>34</v>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1654,8 +1654,8 @@
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>34</v>
+      <c r="V10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1722,8 +1722,8 @@
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>34</v>
+      <c r="V11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -1790,8 +1790,8 @@
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>34</v>
+      <c r="V12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -1858,8 +1858,8 @@
       <c r="U13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>34</v>
+      <c r="V13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -1926,8 +1926,8 @@
       <c r="U14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>34</v>
+      <c r="V14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -1994,8 +1994,8 @@
       <c r="U15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>34</v>
+      <c r="V15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2062,8 +2062,8 @@
       <c r="U16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>34</v>
+      <c r="V16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -2130,8 +2130,8 @@
       <c r="U17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>34</v>
+      <c r="V17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2198,8 +2198,8 @@
       <c r="U18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>34</v>
+      <c r="V18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2266,8 +2266,8 @@
       <c r="U19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>34</v>
+      <c r="V19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -2334,8 +2334,8 @@
       <c r="U20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>34</v>
+      <c r="V20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -2402,8 +2402,8 @@
       <c r="U21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>34</v>
+      <c r="V21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -2470,8 +2470,8 @@
       <c r="U22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>34</v>
+      <c r="V22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -2538,8 +2538,8 @@
       <c r="U23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>34</v>
+      <c r="V23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -2606,8 +2606,8 @@
       <c r="U24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>34</v>
+      <c r="V24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -2674,8 +2674,8 @@
       <c r="U25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>34</v>
+      <c r="V25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -2810,8 +2810,8 @@
       <c r="U27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>34</v>
+      <c r="V27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -2878,8 +2878,8 @@
       <c r="U28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>34</v>
+      <c r="V28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -2946,8 +2946,8 @@
       <c r="U29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>34</v>
+      <c r="V29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -3014,8 +3014,8 @@
       <c r="U30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>34</v>
+      <c r="V30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -3082,8 +3082,8 @@
       <c r="U31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>34</v>
+      <c r="V31" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -3150,8 +3150,8 @@
       <c r="U32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>34</v>
+      <c r="V32" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -3218,8 +3218,8 @@
       <c r="U33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>34</v>
+      <c r="V33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -3286,8 +3286,8 @@
       <c r="U34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>34</v>
+      <c r="V34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -3354,8 +3354,8 @@
       <c r="U35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>34</v>
+      <c r="V35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -3422,8 +3422,8 @@
       <c r="U36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>34</v>
+      <c r="V36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -3490,8 +3490,8 @@
       <c r="U37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>34</v>
+      <c r="V37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -3558,8 +3558,8 @@
       <c r="U38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>34</v>
+      <c r="V38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -3626,8 +3626,8 @@
       <c r="U39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>34</v>
+      <c r="V39" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -3694,8 +3694,8 @@
       <c r="U40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>34</v>
+      <c r="V40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -3762,8 +3762,8 @@
       <c r="U41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>34</v>
+      <c r="V41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -3830,8 +3830,8 @@
       <c r="U42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>34</v>
+      <c r="V42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -4102,8 +4102,8 @@
       <c r="U46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>34</v>
+      <c r="V46" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
@@ -4170,8 +4170,8 @@
       <c r="U47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>34</v>
+      <c r="V47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -4238,8 +4238,8 @@
       <c r="U48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>34</v>
+      <c r="V48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -4306,8 +4306,8 @@
       <c r="U49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>34</v>
+      <c r="V49" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
@@ -4374,8 +4374,8 @@
       <c r="U50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>34</v>
+      <c r="V50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -4442,8 +4442,8 @@
       <c r="U51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>34</v>
+      <c r="V51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -4510,8 +4510,8 @@
       <c r="U52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>34</v>
+      <c r="V52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -4578,8 +4578,8 @@
       <c r="U53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>34</v>
+      <c r="V53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -4646,8 +4646,8 @@
       <c r="U54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>34</v>
+      <c r="V54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -4714,8 +4714,8 @@
       <c r="U55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>34</v>
+      <c r="V55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -4827,7 +4827,7 @@
         <v>31</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>143</v>
@@ -4918,8 +4918,8 @@
       <c r="U58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>34</v>
+      <c r="V58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
@@ -4986,8 +4986,8 @@
       <c r="U59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>34</v>
+      <c r="V59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
@@ -5054,8 +5054,8 @@
       <c r="U60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>34</v>
+      <c r="V60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -5122,8 +5122,8 @@
       <c r="U61" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>34</v>
+      <c r="V61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
@@ -5190,8 +5190,8 @@
       <c r="U62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>34</v>
+      <c r="V62" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
@@ -5258,8 +5258,8 @@
       <c r="U63" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>34</v>
+      <c r="V63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
@@ -5326,8 +5326,8 @@
       <c r="U64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>34</v>
+      <c r="V64" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
@@ -5394,8 +5394,8 @@
       <c r="U65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>34</v>
+      <c r="V65" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66">
@@ -5462,8 +5462,8 @@
       <c r="U66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>34</v>
+      <c r="V66" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
@@ -5530,8 +5530,8 @@
       <c r="U67" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>34</v>
+      <c r="V67" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
@@ -5734,8 +5734,8 @@
       <c r="U70" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>34</v>
+      <c r="V70" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
@@ -5802,8 +5802,8 @@
       <c r="U71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>34</v>
+      <c r="V71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
@@ -5870,8 +5870,8 @@
       <c r="U72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>34</v>
+      <c r="V72" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
@@ -5938,8 +5938,8 @@
       <c r="U73" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>34</v>
+      <c r="V73" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
@@ -6006,8 +6006,8 @@
       <c r="U74" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>34</v>
+      <c r="V74" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
@@ -6074,8 +6074,8 @@
       <c r="U75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>34</v>
+      <c r="V75" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
@@ -6142,8 +6142,8 @@
       <c r="U76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>34</v>
+      <c r="V76" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
@@ -6210,8 +6210,8 @@
       <c r="U77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>34</v>
+      <c r="V77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
@@ -6278,8 +6278,8 @@
       <c r="U78" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>34</v>
+      <c r="V78" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
@@ -6346,8 +6346,8 @@
       <c r="U79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>34</v>
+      <c r="V79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
@@ -6462,7 +6462,7 @@
         <v>46</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>32</v>
@@ -6550,8 +6550,8 @@
       <c r="U82" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>34</v>
+      <c r="V82" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83">
@@ -6618,8 +6618,8 @@
       <c r="U83" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>34</v>
+      <c r="V83" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-MAD.xlsx
+++ b/Excel-XLSX/UN-MAD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -90,295 +90,481 @@
     <t>GY8daB</t>
   </si>
   <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>MDG</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Dem. Rep. of the Congo</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SUD</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>COB</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Palestinian</t>
+  </si>
+  <si>
+    <t>GAZ</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>2016</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Afghanistan</t>
   </si>
   <si>
     <t>AFG</t>
   </si>
   <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>MAD</t>
-  </si>
-  <si>
-    <t>MDG</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>2017</t>
   </si>
   <si>
-    <t>3</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
   <si>
     <t>2018</t>
   </si>
   <si>
-    <t>4</t>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>42</t>
   </si>
   <si>
     <t>2019</t>
   </si>
   <si>
-    <t>10</t>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>COS</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
   </si>
   <si>
     <t>2020</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>52</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>COI</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
   </si>
   <si>
     <t>2021</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
   </si>
   <si>
     <t>2022</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
   </si>
   <si>
     <t>2023</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>BDI</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>COB</t>
-  </si>
-  <si>
-    <t>COG</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Dem. Rep. of the Congo</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>COI</t>
-  </si>
-  <si>
-    <t>COM</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>COS</t>
-  </si>
-  <si>
-    <t>CRI</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>Palestinian</t>
-  </si>
-  <si>
-    <t>GAZ</t>
-  </si>
-  <si>
-    <t>PSE</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>GUI</t>
-  </si>
-  <si>
-    <t>GIN</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>LBR</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
+    <t>78</t>
   </si>
   <si>
     <t>126</t>
@@ -390,202 +576,40 @@
     <t>MLI</t>
   </si>
   <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>56</t>
+    <t>80</t>
   </si>
   <si>
     <t>925</t>
   </si>
   <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>RWA</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>SOM</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>SUD</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>Türkiye</t>
-  </si>
-  <si>
-    <t>TUR</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>YEM</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>81</t>
   </si>
   <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unknown </t>
-  </si>
-  <si>
-    <t>UKN</t>
-  </si>
-  <si>
-    <t>UNK</t>
-  </si>
-  <si>
     <t>82</t>
   </si>
   <si>
-    <t>1999</t>
+    <t>83</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
   </si>
 </sst>
 </file>
@@ -970,7 +994,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1093,25 +1117,25 @@
         <v>33</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -1125,22 +1149,22 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -1155,31 +1179,31 @@
         <v>31</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1193,22 +1217,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -1223,31 +1247,31 @@
         <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -1261,22 +1285,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -1291,31 +1315,31 @@
         <v>31</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1329,22 +1353,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1359,31 +1383,31 @@
         <v>31</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1397,10 +1421,10 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>25</v>
@@ -1427,31 +1451,31 @@
         <v>31</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1465,22 +1489,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1495,31 +1519,31 @@
         <v>31</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1533,61 +1557,61 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="O9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1601,22 +1625,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1631,31 +1655,31 @@
         <v>31</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -1669,13 +1693,13 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>52</v>
@@ -1699,31 +1723,31 @@
         <v>31</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -1737,22 +1761,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
@@ -1767,31 +1791,31 @@
         <v>31</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1805,22 +1829,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -1835,31 +1859,31 @@
         <v>31</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -1873,22 +1897,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -1903,31 +1927,31 @@
         <v>31</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -1941,22 +1965,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -1971,31 +1995,31 @@
         <v>31</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -2009,22 +2033,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -2039,31 +2063,31 @@
         <v>31</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -2077,22 +2101,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -2107,31 +2131,31 @@
         <v>31</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -2145,22 +2169,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -2175,31 +2199,31 @@
         <v>31</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -2213,22 +2237,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -2243,31 +2267,31 @@
         <v>31</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -2281,22 +2305,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2311,31 +2335,31 @@
         <v>31</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -2349,22 +2373,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2379,31 +2403,31 @@
         <v>31</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -2417,22 +2441,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2447,31 +2471,31 @@
         <v>31</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -2485,22 +2509,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2515,31 +2539,31 @@
         <v>31</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -2553,22 +2577,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>28</v>
@@ -2583,31 +2607,31 @@
         <v>31</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -2621,22 +2645,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2654,28 +2678,28 @@
         <v>55</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -2689,22 +2713,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>28</v>
@@ -2722,28 +2746,28 @@
         <v>33</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -2757,22 +2781,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
@@ -2787,31 +2811,31 @@
         <v>31</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -2825,10 +2849,10 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>77</v>
@@ -2840,7 +2864,7 @@
         <v>79</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -2855,31 +2879,31 @@
         <v>31</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -2893,22 +2917,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -2923,31 +2947,31 @@
         <v>31</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -2961,22 +2985,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -2991,31 +3015,31 @@
         <v>31</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -3029,22 +3053,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -3059,31 +3083,31 @@
         <v>31</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -3097,22 +3121,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>28</v>
@@ -3130,28 +3154,28 @@
         <v>33</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
@@ -3165,22 +3189,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3195,31 +3219,31 @@
         <v>31</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -3233,22 +3257,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3266,28 +3290,28 @@
         <v>33</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -3301,22 +3325,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3334,28 +3358,28 @@
         <v>33</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -3369,19 +3393,19 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>110</v>
@@ -3399,31 +3423,31 @@
         <v>31</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -3437,22 +3461,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3467,31 +3491,31 @@
         <v>31</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3529,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3535,31 +3559,31 @@
         <v>31</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
@@ -3573,22 +3597,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3603,31 +3627,31 @@
         <v>31</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -3641,22 +3665,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -3671,31 +3695,31 @@
         <v>31</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -3709,22 +3733,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="H41" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -3739,31 +3763,31 @@
         <v>31</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -3777,22 +3801,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -3807,31 +3831,31 @@
         <v>31</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
@@ -3845,22 +3869,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -3875,31 +3899,31 @@
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
@@ -3913,61 +3937,61 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="O44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
@@ -3981,22 +4005,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -4011,31 +4035,31 @@
         <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
@@ -4049,22 +4073,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -4082,28 +4106,28 @@
         <v>33</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
@@ -4117,22 +4141,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>28</v>
@@ -4147,31 +4171,31 @@
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
@@ -4185,22 +4209,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4215,31 +4239,31 @@
         <v>31</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
@@ -4253,22 +4277,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>28</v>
@@ -4283,31 +4307,31 @@
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
@@ -4321,22 +4345,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>28</v>
@@ -4351,31 +4375,31 @@
         <v>31</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -4389,22 +4413,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4419,31 +4443,31 @@
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
@@ -4457,22 +4481,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -4487,31 +4511,31 @@
         <v>31</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
@@ -4525,22 +4549,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -4555,31 +4579,31 @@
         <v>31</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
@@ -4593,22 +4617,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>28</v>
@@ -4623,31 +4647,31 @@
         <v>31</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -4661,22 +4685,22 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>28</v>
@@ -4691,31 +4715,31 @@
         <v>31</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
@@ -4729,22 +4753,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>28</v>
@@ -4759,31 +4783,31 @@
         <v>31</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57">
@@ -4797,61 +4821,61 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O57" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="P57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U57" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
@@ -4865,22 +4889,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>28</v>
@@ -4895,31 +4919,31 @@
         <v>31</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U58" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -4933,22 +4957,22 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="I59" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>28</v>
@@ -4963,31 +4987,31 @@
         <v>31</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U59" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
@@ -5001,22 +5025,22 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>28</v>
@@ -5031,31 +5055,31 @@
         <v>31</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U60" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
@@ -5069,22 +5093,22 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>28</v>
@@ -5099,31 +5123,31 @@
         <v>31</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U61" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
@@ -5137,22 +5161,22 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="G62" s="1" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>28</v>
@@ -5167,31 +5191,31 @@
         <v>31</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U62" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63">
@@ -5205,22 +5229,22 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>28</v>
@@ -5235,31 +5259,31 @@
         <v>31</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U63" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64">
@@ -5273,22 +5297,22 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>28</v>
@@ -5306,28 +5330,28 @@
         <v>33</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U64" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65">
@@ -5341,22 +5365,22 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>28</v>
@@ -5371,31 +5395,31 @@
         <v>31</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U65" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66">
@@ -5409,22 +5433,22 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>28</v>
@@ -5439,31 +5463,31 @@
         <v>31</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U66" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67">
@@ -5477,22 +5501,22 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>28</v>
@@ -5507,31 +5531,31 @@
         <v>31</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U67" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68">
@@ -5545,22 +5569,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>28</v>
@@ -5578,28 +5602,28 @@
         <v>33</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="U68" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69">
@@ -5613,22 +5637,22 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>28</v>
@@ -5643,31 +5667,31 @@
         <v>31</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U69" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70">
@@ -5681,22 +5705,22 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>28</v>
@@ -5711,31 +5735,31 @@
         <v>31</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U70" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71">
@@ -5752,19 +5776,19 @@
         <v>170</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>28</v>
@@ -5779,31 +5803,31 @@
         <v>31</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U71" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72">
@@ -5820,19 +5844,19 @@
         <v>171</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>28</v>
@@ -5847,31 +5871,31 @@
         <v>31</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U72" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73">
@@ -5885,22 +5909,22 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>28</v>
@@ -5915,31 +5939,31 @@
         <v>31</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U73" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74">
@@ -5953,22 +5977,22 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>28</v>
@@ -5983,31 +6007,31 @@
         <v>31</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="U74" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V74" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75">
@@ -6021,61 +6045,61 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="O75" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="P75" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U75" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V75" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76">
@@ -6092,19 +6116,19 @@
         <v>178</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>28</v>
@@ -6119,31 +6143,31 @@
         <v>31</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R76" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U76" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77">
@@ -6160,19 +6184,19 @@
         <v>179</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>28</v>
@@ -6187,31 +6211,31 @@
         <v>31</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U77" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V77" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78">
@@ -6228,19 +6252,19 @@
         <v>180</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>28</v>
@@ -6255,31 +6279,31 @@
         <v>31</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U78" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V78" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79">
@@ -6293,22 +6317,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>28</v>
@@ -6323,31 +6347,31 @@
         <v>31</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="U79" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V79" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80">
@@ -6361,22 +6385,22 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>28</v>
@@ -6391,31 +6415,31 @@
         <v>31</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U80" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V80" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81">
@@ -6429,22 +6453,22 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>28</v>
@@ -6459,31 +6483,31 @@
         <v>31</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R81" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U81" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V81" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82">
@@ -6497,22 +6521,22 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>28</v>
@@ -6527,31 +6551,31 @@
         <v>31</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R82" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U82" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V82" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83">
@@ -6565,61 +6589,537 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F83" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R83" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S83" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V83" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R84" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V84" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R85" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V85" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q86" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R86" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="U86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V86" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P83" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q83" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R83" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S83" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T83" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U83" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V83" s="2" t="s">
-        <v>32</v>
+      <c r="I87" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U87" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V87" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R88" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S88" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U88" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V88" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U89" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V89" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V90" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-MAD.xlsx
+++ b/Excel-XLSX/UN-MAD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>GY8daB</t>
+    <t>h7sRL5</t>
   </si>
   <si>
     <t>1994</t>
@@ -603,10 +603,22 @@
     <t>87</t>
   </si>
   <si>
-    <t>1106</t>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NIG</t>
+  </si>
+  <si>
+    <t>NGA</t>
   </si>
   <si>
     <t>88</t>
+  </si>
+  <si>
+    <t>1131</t>
   </si>
   <si>
     <t>89</t>
@@ -994,7 +1006,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V90"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -6663,16 +6675,16 @@
         <v>191</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>28</v>
@@ -6687,10 +6699,10 @@
         <v>31</v>
       </c>
       <c r="N84" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O84" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="P84" s="2" t="s">
         <v>33</v>
@@ -6841,7 +6853,7 @@
         <v>33</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U86" s="1" t="s">
         <v>34</v>
@@ -6935,16 +6947,16 @@
         <v>191</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>28</v>
@@ -6959,10 +6971,10 @@
         <v>31</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="P88" s="2" t="s">
         <v>33</v>
@@ -6997,22 +7009,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>28</v>
@@ -7027,10 +7039,10 @@
         <v>31</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="P89" s="2" t="s">
         <v>33</v>
@@ -7065,60 +7077,128 @@
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F90" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V90" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H91" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="I91" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N90" s="2" t="s">
+      <c r="J91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N91" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O90" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P90" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q90" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R90" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S90" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T90" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U90" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V90" s="2" t="s">
+      <c r="O91" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R91" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V91" s="2" t="s">
         <v>33</v>
       </c>
     </row>
